--- a/results/sidat.xlsx
+++ b/results/sidat.xlsx
@@ -482,16 +482,16 @@
         </is>
       </c>
       <c r="F2">
-        <v>4989466.1</v>
+        <v>5125415.8</v>
       </c>
       <c r="G2">
-        <v>1.2273159</v>
+        <v>1.4949104</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>3.138764</v>
+        <v>4.8216911</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         <v>22</v>
       </c>
       <c r="T2">
-        <v>17024352.34753484</v>
+        <v>22853906.22374598</v>
       </c>
     </row>
     <row r="3">
@@ -549,16 +549,16 @@
         </is>
       </c>
       <c r="F3">
-        <v>10371827</v>
+        <v>8308127.3</v>
       </c>
       <c r="G3">
-        <v>1.2273159</v>
+        <v>1.4949104</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>3.138764</v>
+        <v>4.8216911</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -590,7 +590,7 @@
         <v>22</v>
       </c>
       <c r="T3">
-        <v>35389284.90478674</v>
+        <v>37045416.33659144</v>
       </c>
     </row>
     <row r="4">
@@ -616,16 +616,16 @@
         </is>
       </c>
       <c r="F4">
-        <v>9080999.6</v>
+        <v>6532697.6</v>
       </c>
       <c r="G4">
-        <v>1.2273159</v>
+        <v>1.4949104</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>3.138764</v>
+        <v>4.8216911</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>22</v>
       </c>
       <c r="T4">
-        <v>30984905.75138348</v>
+        <v>29128887.13116513</v>
       </c>
     </row>
     <row r="5">
@@ -683,16 +683,16 @@
         </is>
       </c>
       <c r="F5">
-        <v>2844692.4</v>
+        <v>1471564.9</v>
       </c>
       <c r="G5">
-        <v>1.2273159</v>
+        <v>1.4949104</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>3.138764</v>
+        <v>4.8216911</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -724,7 +724,7 @@
         <v>22</v>
       </c>
       <c r="T5">
-        <v>9706258.098026661</v>
+        <v>6561615.201396174</v>
       </c>
     </row>
     <row r="6">
@@ -750,16 +750,16 @@
         </is>
       </c>
       <c r="F6">
-        <v>2956833.6</v>
+        <v>2214795.8</v>
       </c>
       <c r="G6">
-        <v>1.2273159</v>
+        <v>1.4949104</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>3.138764</v>
+        <v>4.8216911</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -791,7 +791,7 @@
         <v>22</v>
       </c>
       <c r="T6">
-        <v>10088890.48057264</v>
+        <v>9875634.971497621</v>
       </c>
     </row>
     <row r="7">
@@ -817,16 +817,16 @@
         </is>
       </c>
       <c r="F7">
-        <v>5897911.6</v>
+        <v>5066818.3</v>
       </c>
       <c r="G7">
-        <v>1.2273159</v>
+        <v>1.4949104</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>3.138764</v>
+        <v>4.8216911</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>22</v>
       </c>
       <c r="T7">
-        <v>20124021.92551482</v>
+        <v>22592623.66205685</v>
       </c>
     </row>
     <row r="8">
@@ -884,16 +884,16 @@
         </is>
       </c>
       <c r="F8">
-        <v>6409755.3</v>
+        <v>5678551.2</v>
       </c>
       <c r="G8">
-        <v>1.2273159</v>
+        <v>1.4949104</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>3.138764</v>
+        <v>4.8216911</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>22</v>
       </c>
       <c r="T8">
-        <v>21870462.7913353</v>
+        <v>25320302.13266604</v>
       </c>
     </row>
     <row r="9">
@@ -951,16 +951,16 @@
         </is>
       </c>
       <c r="F9">
-        <v>4375659.6</v>
+        <v>3774931.2</v>
       </c>
       <c r="G9">
-        <v>1.2273159</v>
+        <v>1.4949104</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>3.138764</v>
+        <v>4.8216911</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -992,7 +992,7 @@
         <v>22</v>
       </c>
       <c r="T9">
-        <v>14930008.39975109</v>
+        <v>16832180.45370932</v>
       </c>
     </row>
     <row r="10">
@@ -1018,16 +1018,16 @@
         </is>
       </c>
       <c r="F10">
-        <v>5598489.1</v>
+        <v>4393006.3</v>
       </c>
       <c r="G10">
-        <v>1.2273159</v>
+        <v>1.4949104</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>3.138764</v>
+        <v>4.8216911</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>22</v>
       </c>
       <c r="T10">
-        <v>19102374.71144121</v>
+        <v>19588138.39464991</v>
       </c>
     </row>
     <row r="11">
@@ -1085,16 +1085,16 @@
         </is>
       </c>
       <c r="F11">
-        <v>3447965.8</v>
+        <v>2955146.5</v>
       </c>
       <c r="G11">
-        <v>1.2273159</v>
+        <v>1.4949104</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>3.138764</v>
+        <v>4.8216911</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1126,7 +1126,7 @@
         <v>22</v>
       </c>
       <c r="T11">
-        <v>11764662.48792628</v>
+        <v>13176812.11121079</v>
       </c>
     </row>
     <row r="12">
@@ -1152,16 +1152,16 @@
         </is>
       </c>
       <c r="F12">
-        <v>3150887</v>
+        <v>1946882.9</v>
       </c>
       <c r="G12">
-        <v>1.2273159</v>
+        <v>1.4949104</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>3.138764</v>
+        <v>4.8216911</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1193,7 +1193,7 @@
         <v>22</v>
       </c>
       <c r="T12">
-        <v>10751012.1163599</v>
+        <v>8681028.225108024</v>
       </c>
     </row>
     <row r="13">
@@ -1219,16 +1219,16 @@
         </is>
       </c>
       <c r="F13">
-        <v>8937053.300000001</v>
+        <v>5868404.8</v>
       </c>
       <c r="G13">
-        <v>1.2273159</v>
+        <v>1.4949104</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>3.138764</v>
+        <v>4.8216911</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>22</v>
       </c>
       <c r="T13">
-        <v>30493752.49345796</v>
+        <v>26166847.37698369</v>
       </c>
     </row>
     <row r="14">
@@ -1286,16 +1286,16 @@
         </is>
       </c>
       <c r="F14">
-        <v>9571906</v>
+        <v>7185126.5</v>
       </c>
       <c r="G14">
-        <v>1.2273159</v>
+        <v>1.4949104</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>3.138764</v>
+        <v>4.8216911</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1327,7 +1327,7 @@
         <v>22</v>
       </c>
       <c r="T14">
-        <v>32659907.3158314</v>
+        <v>32038026.50250389</v>
       </c>
     </row>
     <row r="15">
@@ -1353,16 +1353,16 @@
         </is>
       </c>
       <c r="F15">
-        <v>8780919.199999999</v>
+        <v>10212215</v>
       </c>
       <c r="G15">
-        <v>1.0499898</v>
+        <v>1.2033945</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>6.9564062</v>
+        <v>7.8131369</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1394,7 +1394,7 @@
         <v>22</v>
       </c>
       <c r="T15">
-        <v>25092547.62421121</v>
+        <v>34021036.464082</v>
       </c>
     </row>
     <row r="16">
@@ -1420,16 +1420,16 @@
         </is>
       </c>
       <c r="F16">
-        <v>15365962</v>
+        <v>17565000</v>
       </c>
       <c r="G16">
-        <v>1.0499898</v>
+        <v>1.2033945</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>6.9564062</v>
+        <v>7.8131369</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1461,7 +1461,7 @@
         <v>22</v>
       </c>
       <c r="T16">
-        <v>43910110.60400372</v>
+        <v>58516150.07044017</v>
       </c>
     </row>
     <row r="17">
@@ -1487,16 +1487,16 @@
         </is>
       </c>
       <c r="F17">
-        <v>18194451</v>
+        <v>16974378</v>
       </c>
       <c r="G17">
-        <v>1.0499898</v>
+        <v>1.2033945</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>6.9564062</v>
+        <v>7.8131369</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>22</v>
       </c>
       <c r="T17">
-        <v>51992862.91278906</v>
+        <v>56548548.27215361</v>
       </c>
     </row>
     <row r="18">
@@ -1554,16 +1554,16 @@
         </is>
       </c>
       <c r="F18">
-        <v>10083031</v>
+        <v>9932519.6</v>
       </c>
       <c r="G18">
-        <v>1.0499898</v>
+        <v>1.2033945</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>6.9564062</v>
+        <v>7.8131369</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         <v>22</v>
       </c>
       <c r="T18">
-        <v>28813490.91150936</v>
+        <v>33089257.47174429</v>
       </c>
     </row>
     <row r="19">
@@ -1621,16 +1621,16 @@
         </is>
       </c>
       <c r="F19">
-        <v>7219525.9</v>
+        <v>5696901.4</v>
       </c>
       <c r="G19">
-        <v>1.0499898</v>
+        <v>1.2033945</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>6.9564062</v>
+        <v>7.8131369</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1662,7 +1662,7 @@
         <v>22</v>
       </c>
       <c r="T19">
-        <v>20630675.82605433</v>
+        <v>18978692.69905498</v>
       </c>
     </row>
     <row r="20">
@@ -1688,16 +1688,16 @@
         </is>
       </c>
       <c r="F20">
-        <v>10371827</v>
+        <v>8308127.3</v>
       </c>
       <c r="G20">
-        <v>1.0499898</v>
+        <v>1.2033945</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>6.9564062</v>
+        <v>7.8131369</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1729,7 +1729,7 @@
         <v>22</v>
       </c>
       <c r="T20">
-        <v>29638760.7060067</v>
+        <v>27677746.87680734</v>
       </c>
     </row>
     <row r="21">
@@ -1755,16 +1755,16 @@
         </is>
       </c>
       <c r="F21">
-        <v>14514056</v>
+        <v>10465713</v>
       </c>
       <c r="G21">
-        <v>1.0499898</v>
+        <v>1.2033945</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>6.9564062</v>
+        <v>7.8131369</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>22</v>
       </c>
       <c r="T21">
-        <v>41475685.30188372</v>
+        <v>34865541.27538609</v>
       </c>
     </row>
     <row r="22">
@@ -1822,16 +1822,16 @@
         </is>
       </c>
       <c r="F22">
-        <v>7415157.2</v>
+        <v>5462777.8</v>
       </c>
       <c r="G22">
-        <v>1.0499898</v>
+        <v>1.2033945</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>6.9564062</v>
+        <v>7.8131369</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1863,7 +1863,7 @@
         <v>22</v>
       </c>
       <c r="T22">
-        <v>21189716.12698733</v>
+        <v>18198731.88421685</v>
       </c>
     </row>
     <row r="23">
@@ -1889,16 +1889,16 @@
         </is>
       </c>
       <c r="F23">
-        <v>4914246.9</v>
+        <v>3122602.5</v>
       </c>
       <c r="G23">
-        <v>1.0499898</v>
+        <v>1.2033945</v>
       </c>
       <c r="H23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>6.9564062</v>
+        <v>7.8131369</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         <v>22</v>
       </c>
       <c r="T23">
-        <v>14043059.90828185</v>
+        <v>10402657.35840203</v>
       </c>
     </row>
     <row r="24">
@@ -1956,16 +1956,16 @@
         </is>
       </c>
       <c r="F24">
-        <v>4103150.8</v>
+        <v>3138636.4</v>
       </c>
       <c r="G24">
-        <v>1.0499898</v>
+        <v>1.2033945</v>
       </c>
       <c r="H24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>6.9564062</v>
+        <v>7.8131369</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>22</v>
       </c>
       <c r="T24">
-        <v>11725253.87300231</v>
+        <v>10456072.79242506</v>
       </c>
     </row>
     <row r="25">
@@ -2023,16 +2023,16 @@
         </is>
       </c>
       <c r="F25">
-        <v>8741007</v>
+        <v>8118576.2</v>
       </c>
       <c r="G25">
-        <v>1.0499898</v>
+        <v>1.2033945</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>6.9564062</v>
+        <v>7.8131369</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>22</v>
       </c>
       <c r="T25">
-        <v>24978493.64461338</v>
+        <v>27046275.16524361</v>
       </c>
     </row>
     <row r="26">
@@ -2090,16 +2090,16 @@
         </is>
       </c>
       <c r="F26">
-        <v>8812866.699999999</v>
+        <v>8973280.5</v>
       </c>
       <c r="G26">
-        <v>1.0499898</v>
+        <v>1.2033945</v>
       </c>
       <c r="H26">
         <v>1</v>
       </c>
       <c r="I26">
-        <v>6.9564062</v>
+        <v>7.8131369</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         <v>22</v>
       </c>
       <c r="T26">
-        <v>25183841.50210324</v>
+        <v>29893642.37757782</v>
       </c>
     </row>
     <row r="27">
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="F27">
-        <v>5465959.6</v>
+        <v>5161862.9</v>
       </c>
       <c r="G27">
-        <v>1.0499898</v>
+        <v>1.2033945</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
       <c r="I27">
-        <v>6.9564062</v>
+        <v>7.8131369</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>22</v>
       </c>
       <c r="T27">
-        <v>15619646.24102389</v>
+        <v>17196262.11781597</v>
       </c>
     </row>
     <row r="28">
@@ -2224,16 +2224,16 @@
         </is>
       </c>
       <c r="F28">
-        <v>7179976.2</v>
+        <v>5365959.4</v>
       </c>
       <c r="G28">
-        <v>1.0499898</v>
+        <v>1.2033945</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
       <c r="I28">
-        <v>6.9564062</v>
+        <v>7.8131369</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>22</v>
       </c>
       <c r="T28">
-        <v>20517657.73442068</v>
+        <v>17876190.46525984</v>
       </c>
     </row>
     <row r="29">
@@ -2291,16 +2291,16 @@
         </is>
       </c>
       <c r="F29">
-        <v>5418215.7</v>
+        <v>4609687.2</v>
       </c>
       <c r="G29">
-        <v>1.0499898</v>
+        <v>1.2033945</v>
       </c>
       <c r="H29">
         <v>1</v>
       </c>
       <c r="I29">
-        <v>6.9564062</v>
+        <v>7.8131369</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         <v>22</v>
       </c>
       <c r="T29">
-        <v>15483212.22344227</v>
+        <v>15356740.56208296</v>
       </c>
     </row>
     <row r="30">
@@ -2358,16 +2358,16 @@
         </is>
       </c>
       <c r="F30">
-        <v>4996016.6</v>
+        <v>4020323.6</v>
       </c>
       <c r="G30">
-        <v>1.0499898</v>
+        <v>1.2033945</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
       <c r="I30">
-        <v>6.9564062</v>
+        <v>7.8131369</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>22</v>
       </c>
       <c r="T30">
-        <v>14276726.79949609</v>
+        <v>13393331.00537047</v>
       </c>
     </row>
     <row r="31">
@@ -2425,16 +2425,16 @@
         </is>
       </c>
       <c r="F31">
-        <v>7830831.7</v>
+        <v>5469063.3</v>
       </c>
       <c r="G31">
-        <v>1.0499898</v>
+        <v>1.2033945</v>
       </c>
       <c r="H31">
         <v>1</v>
       </c>
       <c r="I31">
-        <v>6.9564062</v>
+        <v>7.8131369</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>22</v>
       </c>
       <c r="T31">
-        <v>22377556.71062693</v>
+        <v>18219671.43794687</v>
       </c>
     </row>
     <row r="32">
@@ -2492,16 +2492,16 @@
         </is>
       </c>
       <c r="F32">
-        <v>9393973</v>
+        <v>7075820.9</v>
       </c>
       <c r="G32">
-        <v>1.0499898</v>
+        <v>1.2033945</v>
       </c>
       <c r="H32">
         <v>1</v>
       </c>
       <c r="I32">
-        <v>6.9564062</v>
+        <v>7.8131369</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2533,7 +2533,7 @@
         <v>22</v>
       </c>
       <c r="T32">
-        <v>26844423.63198768</v>
+        <v>23572433.68380057</v>
       </c>
     </row>
     <row r="33">
@@ -2559,16 +2559,16 @@
         </is>
       </c>
       <c r="F33">
-        <v>7467883.8</v>
+        <v>7079015.1</v>
       </c>
       <c r="G33">
-        <v>1.0499898</v>
+        <v>1.2033945</v>
       </c>
       <c r="H33">
         <v>1</v>
       </c>
       <c r="I33">
-        <v>6.9564062</v>
+        <v>7.8131369</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
         <v>22</v>
       </c>
       <c r="T33">
-        <v>21340388.81755972</v>
+        <v>23583074.86151506</v>
       </c>
     </row>
     <row r="34">
@@ -2626,16 +2626,16 @@
         </is>
       </c>
       <c r="F34">
-        <v>9498026.6</v>
+        <v>5386637.3</v>
       </c>
       <c r="G34">
-        <v>1.0499898</v>
+        <v>1.2033945</v>
       </c>
       <c r="H34">
         <v>1</v>
       </c>
       <c r="I34">
-        <v>6.9564062</v>
+        <v>7.8131369</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         <v>22</v>
       </c>
       <c r="T34">
-        <v>27141769.485423</v>
+        <v>17945076.94971994</v>
       </c>
     </row>
     <row r="35">
@@ -2693,16 +2693,16 @@
         </is>
       </c>
       <c r="F35">
-        <v>5193219.1</v>
+        <v>8040267.7</v>
       </c>
       <c r="G35">
-        <v>1.0499898</v>
+        <v>1.2033945</v>
       </c>
       <c r="H35">
         <v>1</v>
       </c>
       <c r="I35">
-        <v>6.9564062</v>
+        <v>7.8131369</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>22</v>
       </c>
       <c r="T35">
-        <v>14840256.99606862</v>
+        <v>26785397.74208442</v>
       </c>
     </row>
   </sheetData>
